--- a/config/forms/app/case_management.xlsx
+++ b/config/forms/app/case_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B6F10B-E93D-45E1-86E5-B395192E45FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBD3DC-9C17-45EB-9EEE-50CED9274F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8330" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8327" uniqueCount="2284">
   <si>
     <t>form_title</t>
   </si>
@@ -6805,24 +6805,9 @@
     <t>case_outbreak_location_title</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Case Name: ${ci_case_name} &lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Case ID: ${ci_case_id} &lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>case_identifier_title</t>
-  </si>
-  <si>
-    <t>&lt;h3 style="border-bottom: #f47b63 dashed 1px; padding: 5px 0;"&gt;&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>outbreak_name</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name} | ${outbreak_date} | ${outbreak_status}&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>outbreak_code</t>
   </si>
   <si>
@@ -6877,9 +6862,6 @@
     <t>../outbreak_location/ol_subcounty</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak Location: ${outbreak_location_county} &gt; ${outbreak_location_subcounty}&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/parent/parent/_id</t>
   </si>
   <si>
@@ -6899,6 +6881,18 @@
   </si>
   <si>
     <t>created_on</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${ci_case_id}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case Name: ${ci_case_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400"&gt;Outbreak Location: ${outbreak_location_county} &gt; ${outbreak_location_subcounty}&lt;/h4&gt;</t>
   </si>
 </sst>
 </file>
@@ -7403,12 +7397,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8031,7 +8025,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>33</v>
@@ -8045,16 +8039,16 @@
         <v>40</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="F39" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8062,10 +8056,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8073,10 +8067,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -8099,7 +8093,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8132,7 +8126,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8159,7 +8153,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -8220,7 +8214,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>33</v>
@@ -8230,7 +8224,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -8246,7 +8240,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>33</v>
@@ -8256,7 +8250,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -8282,7 +8276,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -8308,7 +8302,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -8324,7 +8318,7 @@
         <v>43</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>33</v>
@@ -8334,7 +8328,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -8350,7 +8344,7 @@
         <v>43</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>33</v>
@@ -8360,7 +8354,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -8371,92 +8365,92 @@
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
     </row>
-    <row r="61" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="16" t="s">
         <v>2252</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
+      <c r="C61" s="16" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="16" t="s">
         <v>2253</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+      <c r="C62" s="16" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="16" t="s">
         <v>2224</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
+      <c r="C63" s="16" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="16" t="s">
         <v>2223</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
+      <c r="C64" s="16" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>2194</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>2221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>2196</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -8464,10 +8458,10 @@
         <v>197</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -8475,10 +8469,10 @@
         <v>197</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -8486,10 +8480,10 @@
         <v>197</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -8497,79 +8491,68 @@
         <v>197</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>2203</v>
-      </c>
-      <c r="C74" s="8" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="15" t="s">
+    <row r="74" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B74" s="15" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="15" t="s">
+    <row r="76" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C77" s="15" t="s">
+      <c r="B76" s="15" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I76" s="15" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>2185</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>2285</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>2283</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="15" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>2280</v>
+      <c r="B79" s="15" t="s">
+        <v>2274</v>
       </c>
     </row>
   </sheetData>

--- a/config/forms/app/case_management.xlsx
+++ b/config/forms/app/case_management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4C9B0-5DB3-4CFC-B507-9C4AF5BBCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81E98C0-24D2-458D-B5DC-5D796BBDD49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
